--- a/biology/Botanique/Colchicum_cilicicum/Colchicum_cilicicum.xlsx
+++ b/biology/Botanique/Colchicum_cilicicum/Colchicum_cilicicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colchicum cilicicum
 Le colchique de Cilicie, Colchicum cilicicum, est une espèce de plantes à fleurs de la famille des Colchicacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique de Cilicie est une plante vivace géophyte à corme de 10 à 28 cm.
 Les 3 à 25 fleurs légèrement parfumées, rose lilas à pourprées, qui apparaissent en septembre, présentent souvent un fin motif en damier. Les étamines ont des anthères jaunes qui sont disposées horizontalement. Les styles, qui se terminent par des stigmates punctiformes pourpres, sont beaucoup plus longs que les étamines, et atteignent ou dépassent les tépales.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce colchique pousse entre les rochers et dans les éboulis des forêts de pins et des broussailles des Monts Taurus au sud de la Turquie et dans le nord de la Syrie à une altitude d'environ 1000 m.
 </t>
@@ -579,11 +595,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique de Cilicie est cultivé dans les parcs et les jardins d‘ornement. Il requiert une exposition ensoleillée en sol sec. Les bulbiculteurs proposent surtout la sélection 'Purpureum' à fleurs plus foncées.
-Remarque
-Le colchique de Byzance, un taxon très semblable issu vraisemblablement d'un croisement entre le colchique de Cilicie et le colchique d'automne, est plus souvent cultivé. Les fleurs d’un rose lilacé plus clair apparaissent plus tôt dans la saison. Les stigmates dépassent à peine les étamines, dont les anthères sont disposées verticalement.
 </t>
         </is>
       </c>
@@ -609,10 +625,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Remarque</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le colchique de Byzance, un taxon très semblable issu vraisemblablement d'un croisement entre le colchique de Cilicie et le colchique d'automne, est plus souvent cultivé. Les fleurs d’un rose lilacé plus clair apparaissent plus tôt dans la saison. Les stigmates dépassent à peine les étamines, dont les anthères sont disposées verticalement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colchicum_cilicicum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colchicum_cilicicum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Paul Schauenberg, Les plantes bulbeuses, Delachaux et Nestlié S.A., Neuchâtel, 1964
 Martyn Rix &amp; Roger Phillips, The Bulb Book: A Photographic Guide to over 800 Hardy Bulbs, Pan Books Ltd, 1981 -  (ISBN 0-33026-481-8)
